--- a/raw_data/20200818_saline/20200818_Sensor2_Test_44.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_44.xlsx
@@ -1,945 +1,1361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED4982-F4D0-4C60-93C2-3680E0AA9147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>39073.440956</v>
+        <v>39073.440955999999</v>
       </c>
       <c r="B2" s="1">
-        <v>10.853734</v>
+        <v>10.853733999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1253.630000</v>
+        <v>1253.6300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-282.367000</v>
+        <v>-282.36700000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>39084.131228</v>
+        <v>39084.131227999998</v>
       </c>
       <c r="G2" s="1">
         <v>10.856703</v>
       </c>
       <c r="H2" s="1">
-        <v>1275.230000</v>
+        <v>1275.23</v>
       </c>
       <c r="I2" s="1">
-        <v>-245.706000</v>
+        <v>-245.70599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>39094.594383</v>
+        <v>39094.594383000003</v>
       </c>
       <c r="L2" s="1">
-        <v>10.859610</v>
+        <v>10.85961</v>
       </c>
       <c r="M2" s="1">
-        <v>1308.660000</v>
+        <v>1308.6600000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-193.596000</v>
+        <v>-193.596</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>39104.862018</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.862462</v>
+        <v>10.862462000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1320.300000</v>
+        <v>1320.3</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.223000</v>
+        <v>-179.22300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>39115.140650</v>
+        <v>39115.140650000001</v>
       </c>
       <c r="V2" s="1">
-        <v>10.865317</v>
+        <v>10.865316999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1334.620000</v>
+        <v>1334.62</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.576000</v>
+        <v>-168.57599999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>39125.563572</v>
+        <v>39125.563571999999</v>
       </c>
       <c r="AA2" s="1">
         <v>10.868212</v>
       </c>
       <c r="AB2" s="1">
-        <v>1353.520000</v>
+        <v>1353.52</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.609000</v>
+        <v>-168.60900000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>39135.829241</v>
+        <v>39135.829240999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.871064</v>
+        <v>10.871064000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.340000</v>
+        <v>1367.34</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.806000</v>
+        <v>-178.80600000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>39145.934236</v>
+        <v>39145.934236000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.873871</v>
+        <v>10.873870999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.730000</v>
+        <v>1388.73</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.029000</v>
+        <v>-209.029</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>39156.522861</v>
+        <v>39156.522860999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.876812</v>
+        <v>10.876811999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.019000</v>
+        <v>-253.01900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>39167.516196</v>
+        <v>39167.516195999997</v>
       </c>
       <c r="AU2" s="1">
         <v>10.879866</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.133000</v>
+        <v>-313.13299999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>39178.704945</v>
+        <v>39178.704944999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.882974</v>
+        <v>10.882974000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.382000</v>
+        <v>-365.38200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>39189.957154</v>
+        <v>39189.957154000003</v>
       </c>
       <c r="BE2" s="1">
         <v>10.886099</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.870000</v>
+        <v>1539.87</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.574000</v>
+        <v>-614.57399999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>39200.966394</v>
+        <v>39200.966394000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.889157</v>
+        <v>10.889157000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1693.740000</v>
+        <v>1693.74</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.960000</v>
+        <v>-1061.96</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>39212.450723</v>
+        <v>39212.450723000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.892347</v>
+        <v>10.892346999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1987.590000</v>
+        <v>1987.59</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1838.140000</v>
+        <v>-1838.14</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>39223.534849</v>
+        <v>39223.534849000003</v>
       </c>
       <c r="BT2" s="1">
         <v>10.895426</v>
       </c>
       <c r="BU2" s="1">
-        <v>2373.370000</v>
+        <v>2373.37</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2733.240000</v>
+        <v>-2733.24</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>39234.274199</v>
+        <v>39234.274198999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.898409</v>
+        <v>10.898408999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2858.270000</v>
+        <v>2858.27</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3717.220000</v>
+        <v>-3717.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>39245.305760</v>
+        <v>39245.305760000003</v>
       </c>
       <c r="CD2" s="1">
         <v>10.901474</v>
       </c>
       <c r="CE2" s="1">
-        <v>4288.570000</v>
+        <v>4288.57</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6078.840000</v>
+        <v>-6078.84</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>39074.111050</v>
+        <v>39074.11105</v>
       </c>
       <c r="B3" s="1">
-        <v>10.853920</v>
+        <v>10.85392</v>
       </c>
       <c r="C3" s="1">
-        <v>1253.710000</v>
+        <v>1253.71</v>
       </c>
       <c r="D3" s="1">
-        <v>-282.615000</v>
+        <v>-282.61500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>39084.548860</v>
+        <v>39084.548860000003</v>
       </c>
       <c r="G3" s="1">
         <v>10.856819</v>
       </c>
       <c r="H3" s="1">
-        <v>1275.140000</v>
+        <v>1275.1400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-246.408000</v>
+        <v>-246.40799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>39095.012958</v>
+        <v>39095.012957999999</v>
       </c>
       <c r="L3" s="1">
         <v>10.859726</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.180000</v>
+        <v>1308.18</v>
       </c>
       <c r="N3" s="1">
-        <v>-193.932000</v>
+        <v>-193.93199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>39105.212688</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.862559</v>
+        <v>10.862558999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1320.270000</v>
+        <v>1320.27</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.252000</v>
+        <v>-179.25200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>39115.487811</v>
+        <v>39115.487810999999</v>
       </c>
       <c r="V3" s="1">
         <v>10.865413</v>
       </c>
       <c r="W3" s="1">
-        <v>1334.590000</v>
+        <v>1334.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.629000</v>
+        <v>-168.62899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>39125.935541</v>
+        <v>39125.935540999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.868315</v>
+        <v>10.868315000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.674000</v>
+        <v>-168.67400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>39136.251833</v>
+        <v>39136.251833000002</v>
       </c>
       <c r="AF3" s="1">
         <v>10.871181</v>
       </c>
       <c r="AG3" s="1">
-        <v>1367.320000</v>
+        <v>1367.32</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.725000</v>
+        <v>-178.72499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>39146.358811</v>
+        <v>39146.358810999998</v>
       </c>
       <c r="AK3" s="1">
         <v>10.873989</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.044000</v>
+        <v>-209.04400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>39156.960796</v>
+        <v>39156.960795999999</v>
       </c>
       <c r="AP3" s="1">
         <v>10.876934</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.055000</v>
+        <v>-253.05500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>39167.945197</v>
+        <v>39167.945197000001</v>
       </c>
       <c r="AU3" s="1">
         <v>10.879985</v>
       </c>
       <c r="AV3" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>39179.067984</v>
+        <v>39179.067984000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.883074</v>
+        <v>10.883074000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.392000</v>
+        <v>-365.392</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>39190.329153</v>
+        <v>39190.329152999999</v>
       </c>
       <c r="BE3" s="1">
         <v>10.886203</v>
       </c>
       <c r="BF3" s="1">
-        <v>1539.800000</v>
+        <v>1539.8</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.553000</v>
+        <v>-614.553</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>39201.345299</v>
+        <v>39201.345299000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.889263</v>
       </c>
       <c r="BK3" s="1">
-        <v>1693.590000</v>
+        <v>1693.59</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1062.110000</v>
+        <v>-1062.1099999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>39212.879266</v>
+        <v>39212.879266000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.892466</v>
+        <v>10.892466000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1987.310000</v>
+        <v>1987.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1838.280000</v>
+        <v>-1838.28</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>39223.706436</v>
@@ -948,332 +1364,332 @@
         <v>10.895474</v>
       </c>
       <c r="BU3" s="1">
-        <v>2373.490000</v>
+        <v>2373.4899999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2733.270000</v>
+        <v>-2733.27</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>39234.739445</v>
+        <v>39234.739444999999</v>
       </c>
       <c r="BY3" s="1">
         <v>10.898539</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2858.040000</v>
+        <v>2858.04</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3718.010000</v>
+        <v>-3718.01</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>39245.898934</v>
+        <v>39245.898933999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.901639</v>
+        <v>10.901638999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.260000</v>
+        <v>4269.26</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6090.590000</v>
+        <v>-6090.59</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>39074.487018</v>
       </c>
       <c r="B4" s="1">
-        <v>10.854024</v>
+        <v>10.854024000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1253.490000</v>
+        <v>1253.49</v>
       </c>
       <c r="D4" s="1">
-        <v>-282.512000</v>
+        <v>-282.512</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>39084.893579</v>
+        <v>39084.893579000003</v>
       </c>
       <c r="G4" s="1">
-        <v>10.856915</v>
+        <v>10.856915000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1274.820000</v>
+        <v>1274.82</v>
       </c>
       <c r="I4" s="1">
-        <v>-245.937000</v>
+        <v>-245.93700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>39095.360654</v>
+        <v>39095.360653999996</v>
       </c>
       <c r="L4" s="1">
-        <v>10.859822</v>
+        <v>10.859821999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.850000</v>
+        <v>1307.8499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-193.598000</v>
+        <v>-193.59800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>39105.564352</v>
+        <v>39105.564352000001</v>
       </c>
       <c r="Q4" s="1">
         <v>10.862657</v>
       </c>
       <c r="R4" s="1">
-        <v>1320.220000</v>
+        <v>1320.22</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.199000</v>
+        <v>-179.19900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>39115.830182</v>
+        <v>39115.830181999998</v>
       </c>
       <c r="V4" s="1">
         <v>10.865508</v>
       </c>
       <c r="W4" s="1">
-        <v>1334.580000</v>
+        <v>1334.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.511000</v>
+        <v>-168.511</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>39126.366068</v>
+        <v>39126.366068000003</v>
       </c>
       <c r="AA4" s="1">
         <v>10.868435</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.520000</v>
+        <v>1353.52</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.472000</v>
+        <v>-168.47200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>39136.554391</v>
+        <v>39136.554390999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.871265</v>
+        <v>10.871264999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1367.320000</v>
+        <v>1367.32</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.796000</v>
+        <v>-178.79599999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>39146.696122</v>
+        <v>39146.696122000001</v>
       </c>
       <c r="AK4" s="1">
         <v>10.874082</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.086000</v>
+        <v>-209.08600000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>39157.317452</v>
+        <v>39157.317452000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.877033</v>
+        <v>10.877033000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.790000</v>
+        <v>1410.79</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.009000</v>
+        <v>-253.00899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>39168.311778</v>
+        <v>39168.311778000003</v>
       </c>
       <c r="AU4" s="1">
         <v>10.880087</v>
       </c>
       <c r="AV4" s="1">
-        <v>1435.450000</v>
+        <v>1435.45</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.165000</v>
+        <v>-313.16500000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>39179.428574</v>
+        <v>39179.428573999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.883175</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.388000</v>
+        <v>-365.38799999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>39191.054305</v>
+        <v>39191.054304999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.886404</v>
+        <v>10.886404000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.800000</v>
+        <v>1539.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.615000</v>
+        <v>-614.61500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>39202.094256</v>
+        <v>39202.094255999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.889471</v>
       </c>
       <c r="BK4" s="1">
-        <v>1693.600000</v>
+        <v>1693.6</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1062.060000</v>
+        <v>-1062.06</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>39213.287474</v>
+        <v>39213.287473999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.892580</v>
+        <v>10.892580000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1987.540000</v>
+        <v>1987.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1838.290000</v>
+        <v>-1838.29</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>39224.116663</v>
+        <v>39224.116663000001</v>
       </c>
       <c r="BT4" s="1">
         <v>10.895588</v>
       </c>
       <c r="BU4" s="1">
-        <v>2373.950000</v>
+        <v>2373.9499999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2733.180000</v>
+        <v>-2733.18</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>39235.185350</v>
+        <v>39235.18535</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.898663</v>
+        <v>10.898663000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2857.630000</v>
+        <v>2857.63</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3717.610000</v>
+        <v>-3717.61</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>39246.747095</v>
+        <v>39246.747094999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.901874</v>
+        <v>10.901873999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4284.610000</v>
+        <v>4284.6099999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6076.530000</v>
+        <v>-6076.53</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>39074.832234</v>
+        <v>39074.832234000001</v>
       </c>
       <c r="B5" s="1">
-        <v>10.854120</v>
+        <v>10.85412</v>
       </c>
       <c r="C5" s="1">
-        <v>1253.340000</v>
+        <v>1253.3399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-282.113000</v>
+        <v>-282.113</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>39085.239291</v>
+        <v>39085.239290999998</v>
       </c>
       <c r="G5" s="1">
         <v>10.857011</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.610000</v>
+        <v>1273.6099999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-246.285000</v>
+        <v>-246.285</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>39095.707853</v>
@@ -1282,285 +1698,285 @@
         <v>10.859919</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.110000</v>
+        <v>1308.1099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-194.300000</v>
+        <v>-194.3</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>39105.980032</v>
+        <v>39105.980031999999</v>
       </c>
       <c r="Q5" s="1">
         <v>10.862772</v>
       </c>
       <c r="R5" s="1">
-        <v>1320.220000</v>
+        <v>1320.22</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.111000</v>
+        <v>-179.11099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>39116.518994</v>
+        <v>39116.518993999998</v>
       </c>
       <c r="V5" s="1">
-        <v>10.865700</v>
+        <v>10.8657</v>
       </c>
       <c r="W5" s="1">
-        <v>1334.560000</v>
+        <v>1334.56</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.524000</v>
+        <v>-168.524</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>39126.664661</v>
+        <v>39126.664661000003</v>
       </c>
       <c r="AA5" s="1">
         <v>10.868518</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.340000</v>
+        <v>1353.34</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.408000</v>
+        <v>-168.40799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>39136.896166</v>
+        <v>39136.896165999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.871360</v>
+        <v>10.871359999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1367.260000</v>
+        <v>1367.26</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.745000</v>
+        <v>-178.745</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>39147.047753</v>
+        <v>39147.047752999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.874180</v>
+        <v>10.874180000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.710000</v>
+        <v>1388.71</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.095000</v>
+        <v>-209.095</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>39157.678508</v>
+        <v>39157.678507999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.877133</v>
+        <v>10.877133000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.022000</v>
+        <v>-253.02199999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>39168.673820</v>
+        <v>39168.673820000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.880187</v>
+        <v>10.880186999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1435.450000</v>
+        <v>1435.45</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.123000</v>
+        <v>-313.12299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>39180.145328</v>
+        <v>39180.145327999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>10.883374</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.400000</v>
+        <v>-365.4</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>39191.440688</v>
+        <v>39191.440688000002</v>
       </c>
       <c r="BE5" s="1">
         <v>10.886511</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.542000</v>
+        <v>-614.54200000000003</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>39202.468241</v>
+        <v>39202.468241000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.889575</v>
+        <v>10.889575000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1693.660000</v>
+        <v>1693.66</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1062.100000</v>
+        <v>-1062.0999999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>39213.681825</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.892689</v>
+        <v>10.892689000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1987.270000</v>
+        <v>1987.27</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1838.490000</v>
+        <v>-1838.49</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>39224.856658</v>
+        <v>39224.856657999997</v>
       </c>
       <c r="BT5" s="1">
         <v>10.895794</v>
       </c>
       <c r="BU5" s="1">
-        <v>2374.310000</v>
+        <v>2374.31</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2733.610000</v>
+        <v>-2733.61</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>39235.926897</v>
+        <v>39235.926896999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.898869</v>
+        <v>10.898868999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2857.950000</v>
+        <v>2857.95</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3717.630000</v>
+        <v>-3717.63</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>39246.978229</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.901938</v>
+        <v>10.901937999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4284.080000</v>
+        <v>4284.08</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6075.810000</v>
+        <v>-6075.81</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>39075.171001</v>
+        <v>39075.171001000002</v>
       </c>
       <c r="B6" s="1">
-        <v>10.854214</v>
+        <v>10.854214000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1253.860000</v>
+        <v>1253.8599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-282.254000</v>
+        <v>-282.25400000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>39085.655449</v>
+        <v>39085.655448999998</v>
       </c>
       <c r="G6" s="1">
         <v>10.857127</v>
       </c>
       <c r="H6" s="1">
-        <v>1274.920000</v>
+        <v>1274.92</v>
       </c>
       <c r="I6" s="1">
-        <v>-245.437000</v>
+        <v>-245.43700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>39096.128499</v>
+        <v>39096.128498999999</v>
       </c>
       <c r="L6" s="1">
-        <v>10.860036</v>
+        <v>10.860035999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-193.957000</v>
+        <v>-193.95699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>39106.259247</v>
+        <v>39106.259247000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.862850</v>
+        <v>10.86285</v>
       </c>
       <c r="R6" s="1">
-        <v>1320.280000</v>
+        <v>1320.28</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.152000</v>
+        <v>-179.15199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>39116.861265</v>
@@ -1569,28 +1985,28 @@
         <v>10.865795</v>
       </c>
       <c r="W6" s="1">
-        <v>1334.700000</v>
+        <v>1334.7</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.571000</v>
+        <v>-168.571</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>39127.013377</v>
+        <v>39127.013377000003</v>
       </c>
       <c r="AA6" s="1">
         <v>10.868615</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.490000</v>
+        <v>1353.49</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.493000</v>
+        <v>-168.49299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>39137.240392</v>
@@ -1599,315 +2015,315 @@
         <v>10.871456</v>
       </c>
       <c r="AG6" s="1">
-        <v>1367.340000</v>
+        <v>1367.34</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.772000</v>
+        <v>-178.77199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>39147.394953</v>
+        <v>39147.394953000003</v>
       </c>
       <c r="AK6" s="1">
         <v>10.874276</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.087000</v>
+        <v>-209.08699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>39158.398698</v>
+        <v>39158.398697999997</v>
       </c>
       <c r="AP6" s="1">
         <v>10.877333</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.700000</v>
+        <v>1410.7</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.047000</v>
+        <v>-253.047</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>39169.404925</v>
+        <v>39169.404925000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.880390</v>
+        <v>10.88039</v>
       </c>
       <c r="AV6" s="1">
-        <v>1435.480000</v>
+        <v>1435.48</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.144000</v>
+        <v>-313.14400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>39180.504925</v>
+        <v>39180.504925000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.883474</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.386000</v>
+        <v>-365.38600000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>39191.803262</v>
+        <v>39191.803262000001</v>
       </c>
       <c r="BE6" s="1">
         <v>10.886612</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.840000</v>
+        <v>1539.84</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.565000</v>
+        <v>-614.56500000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>39202.846687</v>
+        <v>39202.846686999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.889680</v>
+        <v>10.88968</v>
       </c>
       <c r="BK6" s="1">
-        <v>1693.590000</v>
+        <v>1693.59</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1062.090000</v>
+        <v>-1062.0899999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>39214.415872</v>
+        <v>39214.415871999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.892893</v>
+        <v>10.892893000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1987.230000</v>
+        <v>1987.23</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1838.390000</v>
+        <v>-1838.39</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>39224.977188</v>
+        <v>39224.977187999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.895827</v>
+        <v>10.895827000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2374.790000</v>
+        <v>2374.79</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2733.550000</v>
+        <v>-2733.55</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>39236.051860</v>
+        <v>39236.05186</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.898903</v>
+        <v>10.898903000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2857.610000</v>
+        <v>2857.61</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3716.970000</v>
+        <v>-3716.97</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>39247.500022</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.902083</v>
+        <v>10.902082999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4269.670000</v>
+        <v>4269.67</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6085.260000</v>
+        <v>-6085.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>39075.586648</v>
+        <v>39075.586647999997</v>
       </c>
       <c r="B7" s="1">
-        <v>10.854330</v>
+        <v>10.854329999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1253.390000</v>
+        <v>1253.3900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-282.217000</v>
+        <v>-282.21699999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>39085.934719</v>
+        <v>39085.934718999997</v>
       </c>
       <c r="G7" s="1">
-        <v>10.857204</v>
+        <v>10.857203999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1275.360000</v>
+        <v>1275.3599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-246.092000</v>
+        <v>-246.09200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>39096.421102</v>
       </c>
       <c r="L7" s="1">
-        <v>10.860117</v>
+        <v>10.860117000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.970000</v>
+        <v>1307.97</v>
       </c>
       <c r="N7" s="1">
-        <v>-193.818000</v>
+        <v>-193.81800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>39106.609424</v>
+        <v>39106.609424000002</v>
       </c>
       <c r="Q7" s="1">
         <v>10.862947</v>
       </c>
       <c r="R7" s="1">
-        <v>1320.340000</v>
+        <v>1320.34</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.159000</v>
+        <v>-179.15899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>39117.202482</v>
+        <v>39117.202482000001</v>
       </c>
       <c r="V7" s="1">
-        <v>10.865890</v>
+        <v>10.86589</v>
       </c>
       <c r="W7" s="1">
-        <v>1334.520000</v>
+        <v>1334.52</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.586000</v>
+        <v>-168.58600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>39127.364020</v>
+        <v>39127.364020000001</v>
       </c>
       <c r="AA7" s="1">
         <v>10.868712</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.530000</v>
+        <v>1353.53</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.391000</v>
+        <v>-168.39099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>39137.931286</v>
+        <v>39137.931285999999</v>
       </c>
       <c r="AF7" s="1">
         <v>10.871648</v>
       </c>
       <c r="AG7" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.787000</v>
+        <v>-178.78700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>39148.092856</v>
+        <v>39148.092856000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.874470</v>
+        <v>10.874470000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.770000</v>
+        <v>1388.77</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.071000</v>
+        <v>-209.071</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>39158.757833</v>
+        <v>39158.757833000003</v>
       </c>
       <c r="AP7" s="1">
         <v>10.877433</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.043000</v>
+        <v>-253.04300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>39169.795289</v>
+        <v>39169.795289000002</v>
       </c>
       <c r="AU7" s="1">
         <v>10.880499</v>
       </c>
       <c r="AV7" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.150000</v>
+        <v>-313.14999999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>39180.863501</v>
@@ -1916,88 +2332,88 @@
         <v>10.883573</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.840000</v>
+        <v>1454.84</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.372000</v>
+        <v>-365.37200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>39192.474349</v>
+        <v>39192.474348999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.886798</v>
+        <v>10.886798000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.581000</v>
+        <v>-614.58100000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>39203.554975</v>
+        <v>39203.554974999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.889876</v>
+        <v>10.889875999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1693.560000</v>
+        <v>1693.56</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1062.050000</v>
+        <v>-1062.05</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>39214.527967</v>
+        <v>39214.527967000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.892924</v>
+        <v>10.892924000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1987.070000</v>
+        <v>1987.07</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1838.420000</v>
+        <v>-1838.42</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>39225.388897</v>
+        <v>39225.388896999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.895941</v>
+        <v>10.895941000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2375.290000</v>
+        <v>2375.29</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2733.710000</v>
+        <v>-2733.71</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>39236.476435</v>
+        <v>39236.476434999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.899021</v>
+        <v>10.899020999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2856.980000</v>
+        <v>2856.98</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3717.130000</v>
+        <v>-3717.13</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>39248.016357</v>
@@ -2006,135 +2422,135 @@
         <v>10.902227</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.470000</v>
+        <v>4278.47</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6097.610000</v>
+        <v>-6097.61</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>39075.865895</v>
+        <v>39075.865895000003</v>
       </c>
       <c r="B8" s="1">
         <v>10.854407</v>
       </c>
       <c r="C8" s="1">
-        <v>1253.850000</v>
+        <v>1253.8499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-282.572000</v>
+        <v>-282.572</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>39086.280393</v>
+        <v>39086.280393000001</v>
       </c>
       <c r="G8" s="1">
-        <v>10.857300</v>
+        <v>10.8573</v>
       </c>
       <c r="H8" s="1">
-        <v>1275.070000</v>
+        <v>1275.07</v>
       </c>
       <c r="I8" s="1">
-        <v>-245.154000</v>
+        <v>-245.154</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>39096.767341</v>
+        <v>39096.767340999999</v>
       </c>
       <c r="L8" s="1">
         <v>10.860213</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.950000</v>
+        <v>1307.95</v>
       </c>
       <c r="N8" s="1">
-        <v>-193.853000</v>
+        <v>-193.85300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>39106.958141</v>
+        <v>39106.958141000003</v>
       </c>
       <c r="Q8" s="1">
         <v>10.863044</v>
       </c>
       <c r="R8" s="1">
-        <v>1320.330000</v>
+        <v>1320.33</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.229000</v>
+        <v>-179.22900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>39117.889937</v>
       </c>
       <c r="V8" s="1">
-        <v>10.866081</v>
+        <v>10.866080999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1334.550000</v>
+        <v>1334.55</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.459000</v>
+        <v>-168.459</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>39128.060436</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.868906</v>
+        <v>10.868906000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.370000</v>
+        <v>1353.37</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.352000</v>
+        <v>-168.352</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>39138.272038</v>
+        <v>39138.272038000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.871742</v>
+        <v>10.871741999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.360000</v>
+        <v>1367.36</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.776000</v>
+        <v>-178.77600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>39148.441511</v>
+        <v>39148.441510999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.874567</v>
+        <v>10.874567000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.052000</v>
+        <v>-209.05199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>39159.118422</v>
@@ -2143,225 +2559,225 @@
         <v>10.877533</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.750000</v>
+        <v>1410.75</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.077000</v>
+        <v>-253.077</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>39170.462394</v>
+        <v>39170.462394000002</v>
       </c>
       <c r="AU8" s="1">
         <v>10.880684</v>
       </c>
       <c r="AV8" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.156000</v>
+        <v>-313.15600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>39181.536572</v>
+        <v>39181.536571999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.883760</v>
+        <v>10.883760000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.407000</v>
+        <v>-365.40699999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>39192.922742</v>
+        <v>39192.922742000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.886923</v>
+        <v>10.886922999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.780000</v>
+        <v>1539.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.609000</v>
+        <v>-614.60900000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>39203.992475</v>
+        <v>39203.992474999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.889998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1693.620000</v>
+        <v>1693.62</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.990000</v>
+        <v>-1061.99</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>39214.926255</v>
+        <v>39214.926254999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.893035</v>
+        <v>10.893034999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1987.100000</v>
+        <v>1987.1</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1838.330000</v>
+        <v>-1838.33</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>39225.821379</v>
+        <v>39225.821379000001</v>
       </c>
       <c r="BT8" s="1">
         <v>10.896061</v>
       </c>
       <c r="BU8" s="1">
-        <v>2375.660000</v>
+        <v>2375.66</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2733.870000</v>
+        <v>-2733.87</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>39236.893570</v>
+        <v>39236.89357</v>
       </c>
       <c r="BY8" s="1">
         <v>10.899137</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2857.420000</v>
+        <v>2857.42</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3717.780000</v>
+        <v>-3717.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>39248.535172</v>
+        <v>39248.535172000004</v>
       </c>
       <c r="CD8" s="1">
         <v>10.902371</v>
       </c>
       <c r="CE8" s="1">
-        <v>4289.760000</v>
+        <v>4289.76</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6088.860000</v>
+        <v>-6088.86</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>39076.209126</v>
+        <v>39076.209126000002</v>
       </c>
       <c r="B9" s="1">
-        <v>10.854503</v>
+        <v>10.854502999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1253.570000</v>
+        <v>1253.57</v>
       </c>
       <c r="D9" s="1">
-        <v>-282.678000</v>
+        <v>-282.678</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>39086.624121</v>
+        <v>39086.624121000001</v>
       </c>
       <c r="G9" s="1">
         <v>10.857396</v>
       </c>
       <c r="H9" s="1">
-        <v>1275.030000</v>
+        <v>1275.03</v>
       </c>
       <c r="I9" s="1">
-        <v>-246.281000</v>
+        <v>-246.28100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>39097.113552</v>
+        <v>39097.113552000003</v>
       </c>
       <c r="L9" s="1">
-        <v>10.860309</v>
+        <v>10.860309000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-194.033000</v>
+        <v>-194.03299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>39107.656509</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.863238</v>
+        <v>10.863238000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1320.250000</v>
+        <v>1320.25</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.199000</v>
+        <v>-179.19900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>39118.234655</v>
       </c>
       <c r="V9" s="1">
-        <v>10.866176</v>
+        <v>10.866175999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1334.680000</v>
+        <v>1334.68</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.631000</v>
+        <v>-168.631</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>39128.406643</v>
+        <v>39128.406643000002</v>
       </c>
       <c r="AA9" s="1">
         <v>10.869002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1353.510000</v>
+        <v>1353.51</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.362000</v>
+        <v>-168.36199999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>39138.617284</v>
@@ -2370,225 +2786,225 @@
         <v>10.871838</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.270000</v>
+        <v>1367.27</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.780000</v>
+        <v>-178.78</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>39148.788246</v>
+        <v>39148.788245999996</v>
       </c>
       <c r="AK9" s="1">
         <v>10.874663</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.047000</v>
+        <v>-209.047</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>39159.789482</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.877719</v>
+        <v>10.877719000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.040000</v>
+        <v>-253.04</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>39170.923675</v>
+        <v>39170.923674999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.880812</v>
+        <v>10.880812000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1435.450000</v>
+        <v>1435.45</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.120000</v>
+        <v>-313.12</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>39181.969580</v>
+        <v>39181.969579999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.883880</v>
+        <v>10.88388</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.372000</v>
+        <v>-365.37200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>39193.280877</v>
+        <v>39193.280876999997</v>
       </c>
       <c r="BE9" s="1">
         <v>10.887022</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.593000</v>
+        <v>-614.59299999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>39204.398709</v>
+        <v>39204.398709000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.890111</v>
+        <v>10.890110999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1693.580000</v>
+        <v>1693.58</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1062.030000</v>
+        <v>-1062.03</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>39215.345902</v>
+        <v>39215.345902000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.893152</v>
+        <v>10.893152000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1987.180000</v>
+        <v>1987.18</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1838.310000</v>
+        <v>-1838.31</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>39226.247968</v>
+        <v>39226.247968000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.896180</v>
+        <v>10.896179999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2375.840000</v>
+        <v>2375.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2734.010000</v>
+        <v>-2734.01</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>39237.337987</v>
+        <v>39237.337986999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.899261</v>
+        <v>10.899260999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2858.030000</v>
+        <v>2858.03</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3717.420000</v>
+        <v>-3717.42</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>39249.053030</v>
+        <v>39249.053030000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.902515</v>
+        <v>10.902514999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4289.390000</v>
+        <v>4289.3900000000003</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6094.170000</v>
+        <v>-6094.17</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>39076.552854</v>
+        <v>39076.552854000001</v>
       </c>
       <c r="B10" s="1">
-        <v>10.854598</v>
+        <v>10.854597999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1253.570000</v>
+        <v>1253.57</v>
       </c>
       <c r="D10" s="1">
-        <v>-282.505000</v>
+        <v>-282.505</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>39087.312600</v>
+        <v>39087.312599999997</v>
       </c>
       <c r="G10" s="1">
-        <v>10.857587</v>
+        <v>10.857587000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1275.830000</v>
+        <v>1275.83</v>
       </c>
       <c r="I10" s="1">
-        <v>-245.797000</v>
+        <v>-245.797</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>39097.806427</v>
+        <v>39097.806427000003</v>
       </c>
       <c r="L10" s="1">
         <v>10.860502</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-194.173000</v>
+        <v>-194.173</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>39108.002714</v>
+        <v>39108.002714000002</v>
       </c>
       <c r="Q10" s="1">
         <v>10.863334</v>
       </c>
       <c r="R10" s="1">
-        <v>1320.230000</v>
+        <v>1320.23</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.196000</v>
+        <v>-179.196</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>39118.578384</v>
@@ -2597,270 +3013,270 @@
         <v>10.866272</v>
       </c>
       <c r="W10" s="1">
-        <v>1334.480000</v>
+        <v>1334.48</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.484000</v>
+        <v>-168.48400000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>39128.756817</v>
+        <v>39128.756817000001</v>
       </c>
       <c r="AA10" s="1">
         <v>10.869099</v>
       </c>
       <c r="AB10" s="1">
-        <v>1353.250000</v>
+        <v>1353.25</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.153000</v>
+        <v>-168.15299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>39139.270981</v>
+        <v>39139.270981000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.872020</v>
+        <v>10.872019999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1367.260000</v>
+        <v>1367.26</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.793000</v>
+        <v>-178.79300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>39149.456361</v>
+        <v>39149.456360999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.874849</v>
+        <v>10.874848999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.048000</v>
+        <v>-209.048</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>39160.231912</v>
+        <v>39160.231912000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.877842</v>
+        <v>10.877841999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.039000</v>
+        <v>-253.03899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>39171.286746</v>
+        <v>39171.286745999998</v>
       </c>
       <c r="AU10" s="1">
         <v>10.880913</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.143000</v>
+        <v>-313.14299999999997</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>39182.331164</v>
+        <v>39182.331164000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>10.883981</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.353000</v>
+        <v>-365.35300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>39193.642923</v>
+        <v>39193.642922999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.887123</v>
+        <v>10.887123000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.559000</v>
+        <v>-614.55899999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>39204.771662</v>
+        <v>39204.771661999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.890214</v>
       </c>
       <c r="BK10" s="1">
-        <v>1693.580000</v>
+        <v>1693.58</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.970000</v>
+        <v>-1061.97</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>39215.758542</v>
+        <v>39215.758542000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.893266</v>
+        <v>10.893266000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1987.100000</v>
+        <v>1987.1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1838.260000</v>
+        <v>-1838.26</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>39226.661600</v>
+        <v>39226.661599999999</v>
       </c>
       <c r="BT10" s="1">
         <v>10.896295</v>
       </c>
       <c r="BU10" s="1">
-        <v>2376.400000</v>
+        <v>2376.4</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2734.310000</v>
+        <v>-2734.31</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>39237.762592</v>
+        <v>39237.762591999999</v>
       </c>
       <c r="BY10" s="1">
         <v>10.899378</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2857.420000</v>
+        <v>2857.42</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3717.390000</v>
+        <v>-3717.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>39249.606530</v>
+        <v>39249.606529999997</v>
       </c>
       <c r="CD10" s="1">
         <v>10.902668</v>
       </c>
       <c r="CE10" s="1">
-        <v>4276.210000</v>
+        <v>4276.21</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6095.590000</v>
+        <v>-6095.59</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>39077.237334</v>
+        <v>39077.237333999998</v>
       </c>
       <c r="B11" s="1">
-        <v>10.854788</v>
+        <v>10.854787999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1253.600000</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-282.360000</v>
+        <v>-282.36</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>39087.656791</v>
+        <v>39087.656791000001</v>
       </c>
       <c r="G11" s="1">
         <v>10.857682</v>
       </c>
       <c r="H11" s="1">
-        <v>1275.010000</v>
+        <v>1275.01</v>
       </c>
       <c r="I11" s="1">
-        <v>-247.313000</v>
+        <v>-247.31299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>39098.152137</v>
+        <v>39098.152136999997</v>
       </c>
       <c r="L11" s="1">
         <v>10.860598</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.030000</v>
+        <v>1308.03</v>
       </c>
       <c r="N11" s="1">
-        <v>-193.960000</v>
+        <v>-193.96</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>39108.352364</v>
+        <v>39108.352363999998</v>
       </c>
       <c r="Q11" s="1">
         <v>10.863431</v>
       </c>
       <c r="R11" s="1">
-        <v>1320.280000</v>
+        <v>1320.28</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.158000</v>
+        <v>-179.15799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>39119.234625</v>
+        <v>39119.234624999997</v>
       </c>
       <c r="V11" s="1">
-        <v>10.866454</v>
+        <v>10.866453999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1334.580000</v>
+        <v>1334.58</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.391000</v>
+        <v>-168.39099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>39129.413986</v>
@@ -2869,58 +3285,58 @@
         <v>10.869282</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.360000</v>
+        <v>1353.36</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.524000</v>
+        <v>-168.524</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>39139.648932</v>
+        <v>39139.648931999996</v>
       </c>
       <c r="AF11" s="1">
         <v>10.872125</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.814000</v>
+        <v>-178.81399999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>39149.836759</v>
+        <v>39149.836758999998</v>
       </c>
       <c r="AK11" s="1">
         <v>10.874955</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.740000</v>
+        <v>1388.74</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.045000</v>
+        <v>-209.04499999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>39160.591544</v>
+        <v>39160.591544000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.877942</v>
+        <v>10.877942000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.008000</v>
+        <v>-253.00800000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>39171.648857</v>
@@ -2929,1011 +3345,1011 @@
         <v>10.881014</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.470000</v>
+        <v>1435.47</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.136000</v>
+        <v>-313.13600000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>39182.689772</v>
+        <v>39182.689771999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.884080</v>
+        <v>10.884080000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.850000</v>
+        <v>1454.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.358000</v>
+        <v>-365.358</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>39194.063076</v>
+        <v>39194.063075999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.887240</v>
+        <v>10.88724</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.555000</v>
+        <v>-614.55499999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>39205.227484</v>
+        <v>39205.227484000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.890341</v>
+        <v>10.890340999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1693.550000</v>
+        <v>1693.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1061.970000</v>
+        <v>-1061.97</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>39216.164767</v>
+        <v>39216.164767000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.893379</v>
+        <v>10.893378999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1987.300000</v>
+        <v>1987.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1838.260000</v>
+        <v>-1838.26</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>39227.090177</v>
+        <v>39227.090176999998</v>
       </c>
       <c r="BT11" s="1">
         <v>10.896414</v>
       </c>
       <c r="BU11" s="1">
-        <v>2376.580000</v>
+        <v>2376.58</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2734.930000</v>
+        <v>-2734.93</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>39238.186162</v>
+        <v>39238.186161999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.899496</v>
+        <v>10.899495999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2857.240000</v>
+        <v>2857.24</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3717.130000</v>
+        <v>-3717.13</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>39250.133777</v>
+        <v>39250.133777000003</v>
       </c>
       <c r="CD11" s="1">
         <v>10.902815</v>
       </c>
       <c r="CE11" s="1">
-        <v>4289.510000</v>
+        <v>4289.51</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6090.680000</v>
+        <v>-6090.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>39077.577589</v>
       </c>
       <c r="B12" s="1">
-        <v>10.854883</v>
+        <v>10.854882999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1253.830000</v>
+        <v>1253.83</v>
       </c>
       <c r="D12" s="1">
-        <v>-282.613000</v>
+        <v>-282.613</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>39088.002999</v>
+        <v>39088.002998999997</v>
       </c>
       <c r="G12" s="1">
-        <v>10.857779</v>
+        <v>10.857779000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.830000</v>
+        <v>1274.83</v>
       </c>
       <c r="I12" s="1">
-        <v>-245.768000</v>
+        <v>-245.768</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>39098.815289</v>
+        <v>39098.815288999998</v>
       </c>
       <c r="L12" s="1">
         <v>10.860782</v>
       </c>
       <c r="M12" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="N12" s="1">
-        <v>-193.809000</v>
+        <v>-193.809</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>39109.007611</v>
+        <v>39109.007611000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.863613</v>
+        <v>10.863613000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1320.330000</v>
+        <v>1320.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.176000</v>
+        <v>-179.17599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>39119.612047</v>
+        <v>39119.612047000002</v>
       </c>
       <c r="V12" s="1">
-        <v>10.866559</v>
+        <v>10.866559000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1334.600000</v>
+        <v>1334.6</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.599000</v>
+        <v>-168.59899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>39129.804832</v>
+        <v>39129.804832000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.869390</v>
+        <v>10.869389999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.380000</v>
+        <v>1353.38</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.561000</v>
+        <v>-168.56100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>39139.990706</v>
+        <v>39139.990705999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.872220</v>
+        <v>10.87222</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.320000</v>
+        <v>1367.32</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.777000</v>
+        <v>-178.77699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>39150.165605</v>
+        <v>39150.165605000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.875046</v>
+        <v>10.875045999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.740000</v>
+        <v>1388.74</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.037000</v>
+        <v>-209.03700000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>39160.948136</v>
+        <v>39160.948135999999</v>
       </c>
       <c r="AP12" s="1">
         <v>10.878041</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.760000</v>
+        <v>1410.76</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.018000</v>
+        <v>-253.018</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>39172.075405</v>
+        <v>39172.075405000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.881132</v>
+        <v>10.881131999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1435.470000</v>
+        <v>1435.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.139000</v>
+        <v>-313.13900000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>39183.106411</v>
+        <v>39183.106411000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.884196</v>
+        <v>10.884195999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.372000</v>
+        <v>-365.37200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>39194.363645</v>
+        <v>39194.363644999998</v>
       </c>
       <c r="BE12" s="1">
         <v>10.887323</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.760000</v>
+        <v>1539.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.569000</v>
+        <v>-614.56899999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>39205.546448</v>
+        <v>39205.546448000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.890430</v>
+        <v>10.89043</v>
       </c>
       <c r="BK12" s="1">
-        <v>1693.620000</v>
+        <v>1693.62</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1062.000000</v>
+        <v>-1062</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>39216.563055</v>
+        <v>39216.563054999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.893490</v>
+        <v>10.89349</v>
       </c>
       <c r="BP12" s="1">
-        <v>1987.100000</v>
+        <v>1987.1</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1838.360000</v>
+        <v>-1838.36</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>39227.521168</v>
+        <v>39227.521167999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.896534</v>
+        <v>10.896534000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2376.560000</v>
+        <v>2376.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2735.540000</v>
+        <v>-2735.54</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>39238.623120</v>
+        <v>39238.623119999997</v>
       </c>
       <c r="BY12" s="1">
         <v>10.899618</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2856.840000</v>
+        <v>2856.84</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3716.440000</v>
+        <v>-3716.44</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>39250.657553</v>
+        <v>39250.657552999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.902960</v>
+        <v>10.90296</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.830000</v>
+        <v>4275.83</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6077.350000</v>
+        <v>-6077.35</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>39077.920324</v>
+        <v>39077.920323999999</v>
       </c>
       <c r="B13" s="1">
-        <v>10.854978</v>
+        <v>10.854977999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1253.850000</v>
+        <v>1253.8499999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-282.351000</v>
+        <v>-282.351</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>39088.662182</v>
       </c>
       <c r="G13" s="1">
-        <v>10.857962</v>
+        <v>10.857962000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1275.200000</v>
+        <v>1275.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-246.539000</v>
+        <v>-246.53899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>39099.190264</v>
+        <v>39099.190263999997</v>
       </c>
       <c r="L13" s="1">
-        <v>10.860886</v>
+        <v>10.860886000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N13" s="1">
-        <v>-194.437000</v>
+        <v>-194.43700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>39109.397629</v>
+        <v>39109.397628999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.863722</v>
+        <v>10.863721999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.350000</v>
+        <v>1320.35</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.209000</v>
+        <v>-179.209</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>39119.961757</v>
+        <v>39119.961756999997</v>
       </c>
       <c r="V13" s="1">
-        <v>10.866656</v>
+        <v>10.866656000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1334.570000</v>
+        <v>1334.57</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.472000</v>
+        <v>-168.47200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>39130.150579</v>
+        <v>39130.150579000001</v>
       </c>
       <c r="AA13" s="1">
         <v>10.869486</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.540000</v>
+        <v>1353.54</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.357000</v>
+        <v>-168.357</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>39140.334899</v>
+        <v>39140.334899000001</v>
       </c>
       <c r="AF13" s="1">
         <v>10.872315</v>
       </c>
       <c r="AG13" s="1">
-        <v>1367.330000</v>
+        <v>1367.33</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.804000</v>
+        <v>-178.804</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>39150.534132</v>
+        <v>39150.534132000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.875148</v>
+        <v>10.875147999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.059000</v>
+        <v>-209.059</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>39161.361799</v>
+        <v>39161.361798999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.878156</v>
+        <v>10.878156000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.042000</v>
+        <v>-253.042</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>39172.382936</v>
+        <v>39172.382936000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.881217</v>
+        <v>10.881216999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.138000</v>
+        <v>-313.13799999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>39183.404505</v>
+        <v>39183.404504999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.884279</v>
+        <v>10.884278999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.396000</v>
+        <v>-365.39600000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>39194.726187</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.887424</v>
+        <v>10.887423999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.535000</v>
+        <v>-614.53499999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>39205.923403</v>
+        <v>39205.923403000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.890534</v>
+        <v>10.890534000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1693.550000</v>
+        <v>1693.55</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1062.010000</v>
+        <v>-1062.01</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>39216.984653</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.893607</v>
+        <v>10.893606999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1987.060000</v>
+        <v>1987.06</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1838.290000</v>
+        <v>-1838.29</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>39227.944295</v>
+        <v>39227.944295000001</v>
       </c>
       <c r="BT13" s="1">
         <v>10.896651</v>
       </c>
       <c r="BU13" s="1">
-        <v>2376.600000</v>
+        <v>2376.6</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2735.810000</v>
+        <v>-2735.81</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>39239.066582</v>
+        <v>39239.066581999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.899741</v>
+        <v>10.899741000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2857.610000</v>
+        <v>2857.61</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3716.940000</v>
+        <v>-3716.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>39251.191773</v>
+        <v>39251.191772999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.903109</v>
+        <v>10.903109000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4281.270000</v>
+        <v>4281.2700000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6100.050000</v>
+        <v>-6100.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>39078.569625</v>
+        <v>39078.569624999996</v>
       </c>
       <c r="B14" s="1">
-        <v>10.855158</v>
+        <v>10.855157999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1253.710000</v>
+        <v>1253.71</v>
       </c>
       <c r="D14" s="1">
-        <v>-282.652000</v>
+        <v>-282.65199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>39089.037171</v>
+        <v>39089.037171000004</v>
       </c>
       <c r="G14" s="1">
-        <v>10.858066</v>
+        <v>10.858066000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1274.960000</v>
+        <v>1274.96</v>
       </c>
       <c r="I14" s="1">
-        <v>-244.940000</v>
+        <v>-244.94</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>39099.537005</v>
+        <v>39099.537004999998</v>
       </c>
       <c r="L14" s="1">
-        <v>10.860983</v>
+        <v>10.860982999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.830000</v>
+        <v>1307.83</v>
       </c>
       <c r="N14" s="1">
-        <v>-193.635000</v>
+        <v>-193.63499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>39109.745628</v>
+        <v>39109.745627999997</v>
       </c>
       <c r="Q14" s="1">
         <v>10.863818</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.280000</v>
+        <v>1320.28</v>
       </c>
       <c r="S14" s="1">
-        <v>-179.237000</v>
+        <v>-179.23699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>39120.304461</v>
       </c>
       <c r="V14" s="1">
-        <v>10.866751</v>
+        <v>10.866751000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1334.590000</v>
+        <v>1334.59</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.528000</v>
+        <v>-168.52799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>39130.500720</v>
+        <v>39130.500719999996</v>
       </c>
       <c r="AA14" s="1">
         <v>10.869584</v>
       </c>
       <c r="AB14" s="1">
-        <v>1353.450000</v>
+        <v>1353.45</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.330000</v>
+        <v>-168.33</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>39140.755537</v>
+        <v>39140.755536999997</v>
       </c>
       <c r="AF14" s="1">
         <v>10.872432</v>
       </c>
       <c r="AG14" s="1">
-        <v>1367.310000</v>
+        <v>1367.31</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.806000</v>
+        <v>-178.80600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>39150.950277</v>
+        <v>39150.950277000004</v>
       </c>
       <c r="AK14" s="1">
         <v>10.875264</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.750000</v>
+        <v>1388.75</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.045000</v>
+        <v>-209.04499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>39161.671798</v>
+        <v>39161.671798000003</v>
       </c>
       <c r="AP14" s="1">
         <v>10.878242</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.999000</v>
+        <v>-252.999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>39172.746472</v>
+        <v>39172.746471999999</v>
       </c>
       <c r="AU14" s="1">
         <v>10.881318</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.162000</v>
+        <v>-313.16199999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>39183.765098</v>
+        <v>39183.765098000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.884379</v>
+        <v>10.884378999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.344000</v>
+        <v>-365.34399999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>39195.085786</v>
+        <v>39195.085786000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.887524</v>
+        <v>10.887524000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.506000</v>
+        <v>-614.50599999999997</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>39206.672826</v>
+        <v>39206.672826000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.890742</v>
+        <v>10.890741999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1693.560000</v>
+        <v>1693.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1062.000000</v>
+        <v>-1062</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>39217.799580</v>
+        <v>39217.799579999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.893833</v>
+        <v>10.893833000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1987.200000</v>
+        <v>1987.2</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1838.220000</v>
+        <v>-1838.22</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>39228.362381</v>
+        <v>39228.362380999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.896767</v>
+        <v>10.896767000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2376.690000</v>
+        <v>2376.69</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2736.400000</v>
+        <v>-2736.4</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>39239.521871</v>
+        <v>39239.521870999997</v>
       </c>
       <c r="BY14" s="1">
         <v>10.899867</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2857.410000</v>
+        <v>2857.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3717.700000</v>
+        <v>-3717.7</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>39251.732383</v>
+        <v>39251.732383000002</v>
       </c>
       <c r="CD14" s="1">
         <v>10.903259</v>
       </c>
       <c r="CE14" s="1">
-        <v>4287.870000</v>
+        <v>4287.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6078.480000</v>
+        <v>-6078.48</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>39078.945060</v>
+        <v>39078.945059999998</v>
       </c>
       <c r="B15" s="1">
-        <v>10.855263</v>
+        <v>10.855263000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1253.900000</v>
+        <v>1253.9000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-282.317000</v>
+        <v>-282.31700000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>39089.378901</v>
+        <v>39089.378900999996</v>
       </c>
       <c r="G15" s="1">
-        <v>10.858161</v>
+        <v>10.858161000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1274.200000</v>
+        <v>1274.2</v>
       </c>
       <c r="I15" s="1">
-        <v>-246.241000</v>
+        <v>-246.24100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>39099.880753</v>
+        <v>39099.880752999998</v>
       </c>
       <c r="L15" s="1">
-        <v>10.861078</v>
+        <v>10.861077999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.970000</v>
+        <v>1307.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-194.214000</v>
+        <v>-194.214</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>39110.096335</v>
+        <v>39110.096335000002</v>
       </c>
       <c r="Q15" s="1">
         <v>10.863916</v>
       </c>
       <c r="R15" s="1">
-        <v>1320.270000</v>
+        <v>1320.27</v>
       </c>
       <c r="S15" s="1">
-        <v>-179.256000</v>
+        <v>-179.256</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>39120.721101</v>
+        <v>39120.721101000003</v>
       </c>
       <c r="V15" s="1">
-        <v>10.866867</v>
+        <v>10.866866999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1334.560000</v>
+        <v>1334.56</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.421000</v>
+        <v>-168.42099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>39130.929794</v>
+        <v>39130.929794000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.869703</v>
+        <v>10.869702999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.520000</v>
+        <v>1353.52</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.320000</v>
+        <v>-168.32</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>39141.034290</v>
+        <v>39141.034290000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.872510</v>
+        <v>10.87251</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.330000</v>
+        <v>1367.33</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.793000</v>
+        <v>-178.79300000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>39151.240932</v>
+        <v>39151.240932000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.875345</v>
+        <v>10.875344999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.770000</v>
+        <v>1388.77</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.033000</v>
+        <v>-209.03299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>39162.031399</v>
@@ -3942,150 +4358,150 @@
         <v>10.878342</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.026000</v>
+        <v>-253.02600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>39173.108552</v>
+        <v>39173.108551999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.881419</v>
+        <v>10.881418999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>39184.122714</v>
+        <v>39184.122713999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.884479</v>
+        <v>10.884479000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.810000</v>
+        <v>1454.81</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.344000</v>
+        <v>-365.34399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>39195.810938</v>
+        <v>39195.810938000002</v>
       </c>
       <c r="BE15" s="1">
         <v>10.887725</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.528000</v>
+        <v>-614.52800000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>39207.047802</v>
+        <v>39207.047802000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.890847</v>
+        <v>10.890847000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1693.580000</v>
+        <v>1693.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1061.880000</v>
+        <v>-1061.8800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>39218.219195</v>
+        <v>39218.219194999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>10.893950</v>
+        <v>10.89395</v>
       </c>
       <c r="BP15" s="1">
-        <v>1987.200000</v>
+        <v>1987.2</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1838.200000</v>
+        <v>-1838.2</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>39228.793941</v>
+        <v>39228.793941000004</v>
       </c>
       <c r="BT15" s="1">
         <v>10.896887</v>
       </c>
       <c r="BU15" s="1">
-        <v>2376.270000</v>
+        <v>2376.27</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2736.880000</v>
+        <v>-2736.88</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>39239.970750</v>
+        <v>39239.97075</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.899992</v>
+        <v>10.899991999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2856.480000</v>
+        <v>2856.48</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3716.900000</v>
+        <v>-3716.9</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>39252.589998</v>
+        <v>39252.589998000003</v>
       </c>
       <c r="CD15" s="1">
         <v>10.903497</v>
       </c>
       <c r="CE15" s="1">
-        <v>4285.350000</v>
+        <v>4285.3500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6097.490000</v>
+        <v>-6097.49</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>39079.288818</v>
+        <v>39079.288818000001</v>
       </c>
       <c r="B16" s="1">
-        <v>10.855358</v>
+        <v>10.855358000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1253.490000</v>
+        <v>1253.49</v>
       </c>
       <c r="D16" s="1">
-        <v>-282.501000</v>
+        <v>-282.50099999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>39089.726101</v>
@@ -4094,465 +4510,465 @@
         <v>10.858257</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.620000</v>
+        <v>1274.6199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-246.206000</v>
+        <v>-246.20599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>39100.303782</v>
+        <v>39100.303782000003</v>
       </c>
       <c r="L16" s="1">
         <v>10.861195</v>
       </c>
       <c r="M16" s="1">
-        <v>1308.260000</v>
+        <v>1308.26</v>
       </c>
       <c r="N16" s="1">
-        <v>-193.598000</v>
+        <v>-193.59800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>39110.520415</v>
+        <v>39110.520414999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.864033</v>
+        <v>10.864032999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1320.260000</v>
+        <v>1320.26</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.163000</v>
+        <v>-179.16300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>39121.001371</v>
+        <v>39121.001370999998</v>
       </c>
       <c r="V16" s="1">
-        <v>10.866945</v>
+        <v>10.866944999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1334.670000</v>
+        <v>1334.67</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.507000</v>
+        <v>-168.50700000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>39131.208014</v>
+        <v>39131.208014000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.869780</v>
+        <v>10.86978</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.420000</v>
+        <v>1353.42</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.431000</v>
+        <v>-168.43100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>39141.378978</v>
+        <v>39141.378978000001</v>
       </c>
       <c r="AF16" s="1">
         <v>10.872605</v>
       </c>
       <c r="AG16" s="1">
-        <v>1367.330000</v>
+        <v>1367.33</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.773000</v>
+        <v>-178.773</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>39151.678403</v>
+        <v>39151.678402999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.875466</v>
+        <v>10.875465999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.710000</v>
+        <v>1388.71</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.058000</v>
+        <v>-209.05799999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>39162.390996</v>
+        <v>39162.390996000002</v>
       </c>
       <c r="AP16" s="1">
         <v>10.878442</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.023000</v>
+        <v>-253.023</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>39173.837175</v>
+        <v>39173.837175000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.881621</v>
+        <v>10.881621000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1435.480000</v>
+        <v>1435.48</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.131000</v>
+        <v>-313.13099999999997</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>39184.837975</v>
+        <v>39184.837975000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.884677</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.414000</v>
+        <v>-365.41399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>39196.169084</v>
+        <v>39196.169084000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.887825</v>
+        <v>10.887824999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.780000</v>
+        <v>1539.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.503000</v>
+        <v>-614.50300000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>39207.422809</v>
+        <v>39207.422809000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.890951</v>
+        <v>10.890950999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1693.560000</v>
+        <v>1693.56</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1061.910000</v>
+        <v>-1061.9100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>39218.613514</v>
+        <v>39218.613513999997</v>
       </c>
       <c r="BO16" s="1">
         <v>10.894059</v>
       </c>
       <c r="BP16" s="1">
-        <v>1987.040000</v>
+        <v>1987.04</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1838.280000</v>
+        <v>-1838.28</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>39229.518586</v>
+        <v>39229.518585999998</v>
       </c>
       <c r="BT16" s="1">
         <v>10.897088</v>
       </c>
       <c r="BU16" s="1">
-        <v>2375.780000</v>
+        <v>2375.7800000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2737.360000</v>
+        <v>-2737.36</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>39240.731154</v>
+        <v>39240.731154000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.900203</v>
+        <v>10.900202999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2857.430000</v>
+        <v>2857.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3717.150000</v>
+        <v>-3717.15</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>39252.814189</v>
+        <v>39252.814188999997</v>
       </c>
       <c r="CD16" s="1">
         <v>10.903559</v>
       </c>
       <c r="CE16" s="1">
-        <v>4286.240000</v>
+        <v>4286.24</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6098.310000</v>
+        <v>-6098.31</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>39079.631028</v>
+        <v>39079.631028000003</v>
       </c>
       <c r="B17" s="1">
-        <v>10.855453</v>
+        <v>10.855453000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1253.620000</v>
+        <v>1253.6199999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-282.573000</v>
+        <v>-282.57299999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>39090.145220</v>
+        <v>39090.145219999999</v>
       </c>
       <c r="G17" s="1">
         <v>10.858374</v>
       </c>
       <c r="H17" s="1">
-        <v>1275.210000</v>
+        <v>1275.21</v>
       </c>
       <c r="I17" s="1">
-        <v>-246.546000</v>
+        <v>-246.54599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>39100.570632</v>
+        <v>39100.570632000003</v>
       </c>
       <c r="L17" s="1">
-        <v>10.861270</v>
+        <v>10.861269999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1308.010000</v>
+        <v>1308.01</v>
       </c>
       <c r="N17" s="1">
-        <v>-194.023000</v>
+        <v>-194.023</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>39110.802105</v>
+        <v>39110.802105000002</v>
       </c>
       <c r="Q17" s="1">
         <v>10.864112</v>
       </c>
       <c r="R17" s="1">
-        <v>1320.290000</v>
+        <v>1320.29</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.147000</v>
+        <v>-179.14699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>39121.346364</v>
+        <v>39121.346363999997</v>
       </c>
       <c r="V17" s="1">
         <v>10.867041</v>
       </c>
       <c r="W17" s="1">
-        <v>1334.500000</v>
+        <v>1334.5</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.594000</v>
+        <v>-168.59399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>39131.554718</v>
+        <v>39131.554717999999</v>
       </c>
       <c r="AA17" s="1">
         <v>10.869876</v>
       </c>
       <c r="AB17" s="1">
-        <v>1353.260000</v>
+        <v>1353.26</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.595000</v>
+        <v>-168.595</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>39141.722209</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.872701</v>
+        <v>10.872700999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.766000</v>
+        <v>-178.76599999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>39152.264180</v>
+        <v>39152.264179999998</v>
       </c>
       <c r="AK17" s="1">
         <v>10.875629</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.030000</v>
+        <v>-209.03</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>39163.118132</v>
+        <v>39163.118132000003</v>
       </c>
       <c r="AP17" s="1">
         <v>10.878644</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.760000</v>
+        <v>1410.76</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.005000</v>
+        <v>-253.005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>39174.231033</v>
+        <v>39174.231032999996</v>
       </c>
       <c r="AU17" s="1">
         <v>10.881731</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.440000</v>
+        <v>1435.44</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.133000</v>
+        <v>-313.13299999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>39185.200552</v>
+        <v>39185.200552000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.884778</v>
+        <v>10.884778000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.353000</v>
+        <v>-365.35300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>39196.531129</v>
+        <v>39196.531129000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>10.887925</v>
+        <v>10.887924999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.790000</v>
+        <v>1539.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.517000</v>
+        <v>-614.51700000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>39208.127096</v>
+        <v>39208.127095999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>10.891146</v>
+        <v>10.891146000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1693.540000</v>
+        <v>1693.54</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1061.890000</v>
+        <v>-1061.8900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>39219.343658</v>
+        <v>39219.343657999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>10.894262</v>
+        <v>10.894261999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1986.990000</v>
+        <v>1986.99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1838.210000</v>
+        <v>-1838.21</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>39229.634124</v>
+        <v>39229.634123999997</v>
       </c>
       <c r="BT17" s="1">
         <v>10.897121</v>
       </c>
       <c r="BU17" s="1">
-        <v>2375.340000</v>
+        <v>2375.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2737.800000</v>
+        <v>-2737.8</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>39240.874957</v>
@@ -4561,422 +4977,422 @@
         <v>10.900243</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2857.610000</v>
+        <v>2857.61</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3716.510000</v>
+        <v>-3716.51</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>39253.333981</v>
+        <v>39253.333981000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.903704</v>
+        <v>10.903703999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4291.680000</v>
+        <v>4291.68</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6080.670000</v>
+        <v>-6080.67</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>39080.049651</v>
+        <v>39080.049651000001</v>
       </c>
       <c r="B18" s="1">
-        <v>10.855569</v>
+        <v>10.855568999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1253.660000</v>
+        <v>1253.6600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-282.232000</v>
+        <v>-282.23200000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>39090.422484</v>
+        <v>39090.422484000002</v>
       </c>
       <c r="G18" s="1">
-        <v>10.858451</v>
+        <v>10.858451000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1274.970000</v>
+        <v>1274.97</v>
       </c>
       <c r="I18" s="1">
-        <v>-245.891000</v>
+        <v>-245.89099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>39100.914358</v>
+        <v>39100.914358000002</v>
       </c>
       <c r="L18" s="1">
-        <v>10.861365</v>
+        <v>10.861364999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1308.220000</v>
+        <v>1308.22</v>
       </c>
       <c r="N18" s="1">
-        <v>-193.970000</v>
+        <v>-193.97</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>39111.148345</v>
+        <v>39111.148345000001</v>
       </c>
       <c r="Q18" s="1">
         <v>10.864208</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.330000</v>
+        <v>1320.33</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.160000</v>
+        <v>-179.16</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>39121.689291</v>
+        <v>39121.689291000002</v>
       </c>
       <c r="V18" s="1">
         <v>10.867136</v>
       </c>
       <c r="W18" s="1">
-        <v>1334.710000</v>
+        <v>1334.71</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.490000</v>
+        <v>-168.49</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>39131.905920</v>
+        <v>39131.905919999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>10.869974</v>
+        <v>10.869973999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.660000</v>
+        <v>1353.66</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.392000</v>
+        <v>-168.392</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>39142.408176</v>
+        <v>39142.408175999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.872891</v>
+        <v>10.872890999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1367.280000</v>
+        <v>1367.28</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.777000</v>
+        <v>-178.77699999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>39152.640641</v>
+        <v>39152.640640999998</v>
       </c>
       <c r="AK18" s="1">
         <v>10.875734</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.730000</v>
+        <v>1388.73</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.051000</v>
+        <v>-209.05099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>39163.496083</v>
+        <v>39163.496082999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.878749</v>
+        <v>10.878748999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.760000</v>
+        <v>1410.76</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.031000</v>
+        <v>-253.03100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>39174.594598</v>
+        <v>39174.594598000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.881832</v>
+        <v>10.881831999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.181000</v>
+        <v>-313.18099999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>39185.558630</v>
+        <v>39185.55863</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.884877</v>
+        <v>10.884876999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.359000</v>
+        <v>-365.35899999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>39197.200231</v>
+        <v>39197.200231000003</v>
       </c>
       <c r="BE18" s="1">
         <v>10.888111</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.840000</v>
+        <v>1539.84</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.529000</v>
+        <v>-614.529</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>39208.575514</v>
+        <v>39208.575513999996</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.891271</v>
       </c>
       <c r="BK18" s="1">
-        <v>1693.500000</v>
+        <v>1693.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1061.900000</v>
+        <v>-1061.9000000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>39219.453241</v>
+        <v>39219.453241000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.894293</v>
+        <v>10.894292999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1987.020000</v>
+        <v>1987.02</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1838.160000</v>
+        <v>-1838.16</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>39230.071131</v>
+        <v>39230.071130999997</v>
       </c>
       <c r="BT18" s="1">
         <v>10.897242</v>
       </c>
       <c r="BU18" s="1">
-        <v>2374.980000</v>
+        <v>2374.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2738.230000</v>
+        <v>-2738.23</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>39241.285151</v>
+        <v>39241.285150999996</v>
       </c>
       <c r="BY18" s="1">
         <v>10.900357</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2857.310000</v>
+        <v>2857.31</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3716.730000</v>
+        <v>-3716.73</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>39253.849836</v>
+        <v>39253.849836000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.903847</v>
+        <v>10.903847000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.920000</v>
+        <v>4274.92</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6076.680000</v>
+        <v>-6076.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>39080.330401</v>
+        <v>39080.330400999999</v>
       </c>
       <c r="B19" s="1">
-        <v>10.855647</v>
+        <v>10.855646999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1253.550000</v>
+        <v>1253.55</v>
       </c>
       <c r="D19" s="1">
-        <v>-282.229000</v>
+        <v>-282.22899999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>39090.765857</v>
+        <v>39090.765856999999</v>
       </c>
       <c r="G19" s="1">
         <v>10.858546</v>
       </c>
       <c r="H19" s="1">
-        <v>1275.260000</v>
+        <v>1275.26</v>
       </c>
       <c r="I19" s="1">
-        <v>-246.426000</v>
+        <v>-246.42599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>39101.264053</v>
+        <v>39101.264052999999</v>
       </c>
       <c r="L19" s="1">
         <v>10.861462</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.880000</v>
+        <v>1307.8800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-194.003000</v>
+        <v>-194.00299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>39111.501994</v>
+        <v>39111.501993999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.864306</v>
+        <v>10.864305999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1320.310000</v>
+        <v>1320.31</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.230000</v>
+        <v>-179.23</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>39122.375289</v>
+        <v>39122.375289000003</v>
       </c>
       <c r="V19" s="1">
         <v>10.867326</v>
       </c>
       <c r="W19" s="1">
-        <v>1334.690000</v>
+        <v>1334.69</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.487000</v>
+        <v>-168.48699999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>39132.603260</v>
+        <v>39132.603260000004</v>
       </c>
       <c r="AA19" s="1">
         <v>10.870168</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.475000</v>
+        <v>-168.47499999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>39142.752400</v>
+        <v>39142.752399999998</v>
       </c>
       <c r="AF19" s="1">
         <v>10.872987</v>
       </c>
       <c r="AG19" s="1">
-        <v>1367.310000</v>
+        <v>1367.31</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.771000</v>
+        <v>-178.77099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>39152.989361</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.875830</v>
+        <v>10.875830000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.740000</v>
+        <v>1388.74</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.022000</v>
+        <v>-209.02199999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>39163.854691</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.878849</v>
+        <v>10.878849000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.770000</v>
+        <v>1410.77</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.026000</v>
+        <v>-253.02600000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>39175.264163</v>
@@ -4985,225 +5401,225 @@
         <v>10.882018</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.430000</v>
+        <v>1435.43</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.148000</v>
+        <v>-313.14800000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>39186.218807</v>
+        <v>39186.218806999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.885061</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.381000</v>
+        <v>-365.38099999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>39197.644150</v>
+        <v>39197.64415</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.888234</v>
+        <v>10.888234000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.491000</v>
+        <v>-614.49099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>39208.977769</v>
+        <v>39208.977768999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.891383</v>
+        <v>10.891382999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1693.630000</v>
+        <v>1693.63</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1061.840000</v>
+        <v>-1061.8399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>39219.857977</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.894405</v>
+        <v>10.894405000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1986.970000</v>
+        <v>1986.97</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1838.260000</v>
+        <v>-1838.26</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>39230.499674</v>
+        <v>39230.499673999999</v>
       </c>
       <c r="BT19" s="1">
         <v>10.897361</v>
       </c>
       <c r="BU19" s="1">
-        <v>2374.380000</v>
+        <v>2374.38</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2737.850000</v>
+        <v>-2737.85</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>39241.717699</v>
+        <v>39241.717699000001</v>
       </c>
       <c r="BY19" s="1">
         <v>10.900477</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2856.880000</v>
+        <v>2856.88</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3716.490000</v>
+        <v>-3716.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>39254.367132</v>
+        <v>39254.367131999999</v>
       </c>
       <c r="CD19" s="1">
         <v>10.903991</v>
       </c>
       <c r="CE19" s="1">
-        <v>4271.590000</v>
+        <v>4271.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6091.470000</v>
+        <v>-6091.47</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>39080.672625</v>
+        <v>39080.672624999999</v>
       </c>
       <c r="B20" s="1">
-        <v>10.855742</v>
+        <v>10.855741999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1253.500000</v>
+        <v>1253.5</v>
       </c>
       <c r="D20" s="1">
-        <v>-282.527000</v>
+        <v>-282.52699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>39091.112453</v>
+        <v>39091.112453000002</v>
       </c>
       <c r="G20" s="1">
         <v>10.858642</v>
       </c>
       <c r="H20" s="1">
-        <v>1274.630000</v>
+        <v>1274.6300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-245.337000</v>
+        <v>-245.33699999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>39101.956452</v>
+        <v>39101.956451999999</v>
       </c>
       <c r="L20" s="1">
-        <v>10.861655</v>
+        <v>10.861655000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.860000</v>
+        <v>1307.8599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-193.645000</v>
+        <v>-193.64500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>39112.195864</v>
+        <v>39112.195864000001</v>
       </c>
       <c r="Q20" s="1">
         <v>10.864499</v>
       </c>
       <c r="R20" s="1">
-        <v>1320.250000</v>
+        <v>1320.25</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.252000</v>
+        <v>-179.25200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>39122.719513</v>
+        <v>39122.719512999996</v>
       </c>
       <c r="V20" s="1">
-        <v>10.867422</v>
+        <v>10.867421999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1334.610000</v>
+        <v>1334.61</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.568000</v>
+        <v>-168.56800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>39132.950459</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.870264</v>
+        <v>10.870264000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.690000</v>
+        <v>1353.69</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.433000</v>
+        <v>-168.43299999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>39143.096128</v>
+        <v>39143.096127999997</v>
       </c>
       <c r="AF20" s="1">
         <v>10.873082</v>
       </c>
       <c r="AG20" s="1">
-        <v>1367.290000</v>
+        <v>1367.29</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.792000</v>
+        <v>-178.792</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>39153.648512</v>
@@ -5212,58 +5628,58 @@
         <v>10.876013</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.053000</v>
+        <v>-209.053</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>39164.522837</v>
+        <v>39164.522836999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>10.879034</v>
+        <v>10.879034000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.991000</v>
+        <v>-252.99100000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>39175.719987</v>
+        <v>39175.719986999997</v>
       </c>
       <c r="AU20" s="1">
         <v>10.882144</v>
       </c>
       <c r="AV20" s="1">
-        <v>1435.450000</v>
+        <v>1435.45</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.125000</v>
+        <v>-313.125</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>39186.632469</v>
+        <v>39186.632468999996</v>
       </c>
       <c r="AZ20" s="1">
         <v>10.885176</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.800000</v>
+        <v>1454.8</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.365000</v>
+        <v>-365.36500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>39198.006382</v>
@@ -5272,210 +5688,210 @@
         <v>10.888335</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.513000</v>
+        <v>-614.51300000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>39209.351755</v>
+        <v>39209.351755000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.891487</v>
       </c>
       <c r="BK20" s="1">
-        <v>1693.540000</v>
+        <v>1693.54</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1061.930000</v>
+        <v>-1061.93</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>39220.253320</v>
+        <v>39220.253320000003</v>
       </c>
       <c r="BO20" s="1">
         <v>10.894515</v>
       </c>
       <c r="BP20" s="1">
-        <v>1987.100000</v>
+        <v>1987.1</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1838.110000</v>
+        <v>-1838.11</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>39230.925706</v>
+        <v>39230.925706000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.897479</v>
+        <v>10.897479000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2373.670000</v>
+        <v>2373.67</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2738.450000</v>
+        <v>-2738.45</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>39242.174014</v>
+        <v>39242.174013999997</v>
       </c>
       <c r="BY20" s="1">
         <v>10.900604</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2856.630000</v>
+        <v>2856.63</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3716.820000</v>
+        <v>-3716.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>39254.886442</v>
+        <v>39254.886442000003</v>
       </c>
       <c r="CD20" s="1">
         <v>10.904135</v>
       </c>
       <c r="CE20" s="1">
-        <v>4271.080000</v>
+        <v>4271.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6087.000000</v>
+        <v>-6087</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>39081.355648</v>
+        <v>39081.355647999997</v>
       </c>
       <c r="B21" s="1">
-        <v>10.855932</v>
+        <v>10.855931999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1253.610000</v>
+        <v>1253.6099999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-282.270000</v>
+        <v>-282.27</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>39091.801858</v>
+        <v>39091.801857999999</v>
       </c>
       <c r="G21" s="1">
         <v>10.858834</v>
       </c>
       <c r="H21" s="1">
-        <v>1274.280000</v>
+        <v>1274.28</v>
       </c>
       <c r="I21" s="1">
-        <v>-246.537000</v>
+        <v>-246.53700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>39102.304149</v>
+        <v>39102.304149000003</v>
       </c>
       <c r="L21" s="1">
         <v>10.861751</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="N21" s="1">
-        <v>-193.780000</v>
+        <v>-193.78</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>39112.545543</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.864596</v>
+        <v>10.864596000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1320.200000</v>
+        <v>1320.2</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.221000</v>
+        <v>-179.221</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>39123.061721</v>
+        <v>39123.061720999998</v>
       </c>
       <c r="V21" s="1">
-        <v>10.867517</v>
+        <v>10.867516999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1334.590000</v>
+        <v>1334.59</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.617000</v>
+        <v>-168.61699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>39133.300173</v>
+        <v>39133.300173000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.870361</v>
+        <v>10.870361000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.660000</v>
+        <v>1353.66</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.285000</v>
+        <v>-168.285</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>39143.756835</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.873266</v>
+        <v>10.873265999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1367.340000</v>
+        <v>1367.34</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.790000</v>
+        <v>-178.79</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>39154.036912</v>
+        <v>39154.036912000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.876121</v>
+        <v>10.876120999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.700000</v>
+        <v>1388.7</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.034000</v>
+        <v>-209.03399999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>39164.936963</v>
@@ -5484,270 +5900,270 @@
         <v>10.879149</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.750000</v>
+        <v>1410.75</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.996000</v>
+        <v>-252.99600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>39176.074817</v>
+        <v>39176.074817000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.882243</v>
+        <v>10.882243000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.146000</v>
+        <v>-313.14600000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>39187.016900</v>
+        <v>39187.016900000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.885282</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.820000</v>
+        <v>1454.82</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.376000</v>
+        <v>-365.37599999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>39198.367845</v>
+        <v>39198.367845000001</v>
       </c>
       <c r="BE21" s="1">
         <v>10.888436</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.830000</v>
+        <v>1539.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.509000</v>
+        <v>-614.50900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>39209.768891</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.891602</v>
+        <v>10.891602000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1693.590000</v>
+        <v>1693.59</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1061.810000</v>
+        <v>-1061.81</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>39220.672904</v>
+        <v>39220.672903999999</v>
       </c>
       <c r="BO21" s="1">
         <v>10.894631</v>
       </c>
       <c r="BP21" s="1">
-        <v>1987.080000</v>
+        <v>1987.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1838.090000</v>
+        <v>-1838.09</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>39231.342346</v>
+        <v>39231.342345999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.897595</v>
+        <v>10.897595000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2373.040000</v>
+        <v>2373.04</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2738.100000</v>
+        <v>-2738.1</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>39242.590152</v>
+        <v>39242.590151999997</v>
       </c>
       <c r="BY21" s="1">
         <v>10.900719</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2856.680000</v>
+        <v>2856.68</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3716.410000</v>
+        <v>-3716.41</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>39255.440969</v>
+        <v>39255.440969000003</v>
       </c>
       <c r="CD21" s="1">
         <v>10.904289</v>
       </c>
       <c r="CE21" s="1">
-        <v>4278.590000</v>
+        <v>4278.59</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6075.010000</v>
+        <v>-6075.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>39081.701824</v>
+        <v>39081.701824000003</v>
       </c>
       <c r="B22" s="1">
         <v>10.856028</v>
       </c>
       <c r="C22" s="1">
-        <v>1253.470000</v>
+        <v>1253.47</v>
       </c>
       <c r="D22" s="1">
-        <v>-282.226000</v>
+        <v>-282.226</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>39092.146579</v>
       </c>
       <c r="G22" s="1">
-        <v>10.858930</v>
+        <v>10.858930000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1274.490000</v>
+        <v>1274.49</v>
       </c>
       <c r="I22" s="1">
-        <v>-246.090000</v>
+        <v>-246.09</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>39102.648868</v>
+        <v>39102.648867999997</v>
       </c>
       <c r="L22" s="1">
-        <v>10.861847</v>
+        <v>10.861846999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.940000</v>
+        <v>1307.94</v>
       </c>
       <c r="N22" s="1">
-        <v>-194.081000</v>
+        <v>-194.08099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>39112.892246</v>
+        <v>39112.892246000003</v>
       </c>
       <c r="Q22" s="1">
         <v>10.864692</v>
       </c>
       <c r="R22" s="1">
-        <v>1320.280000</v>
+        <v>1320.28</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.163000</v>
+        <v>-179.16300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>39123.720905</v>
+        <v>39123.720905000002</v>
       </c>
       <c r="V22" s="1">
-        <v>10.867700</v>
+        <v>10.867699999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1334.570000</v>
+        <v>1334.57</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>39134.016860</v>
+        <v>39134.016860000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.870560</v>
+        <v>10.870559999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1353.830000</v>
+        <v>1353.83</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.456000</v>
+        <v>-168.45599999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>39144.126813</v>
+        <v>39144.126813000003</v>
       </c>
       <c r="AF22" s="1">
         <v>10.873369</v>
       </c>
       <c r="AG22" s="1">
-        <v>1367.370000</v>
+        <v>1367.37</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.723000</v>
+        <v>-178.72300000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>39154.382592</v>
+        <v>39154.382592000002</v>
       </c>
       <c r="AK22" s="1">
         <v>10.876217</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.680000</v>
+        <v>1388.68</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.011000</v>
+        <v>-209.011</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>39165.320897</v>
+        <v>39165.320896999998</v>
       </c>
       <c r="AP22" s="1">
         <v>10.879256</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.995000</v>
+        <v>-252.995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>39176.452114</v>
@@ -5756,180 +6172,180 @@
         <v>10.882348</v>
       </c>
       <c r="AV22" s="1">
-        <v>1435.490000</v>
+        <v>1435.49</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.147000</v>
+        <v>-313.14699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>39187.387381</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.885385</v>
+        <v>10.885384999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.356000</v>
+        <v>-365.35599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>39198.780981</v>
+        <v>39198.780981000004</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.888550</v>
+        <v>10.88855</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.820000</v>
+        <v>1539.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.471000</v>
+        <v>-614.471</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>39210.131430</v>
+        <v>39210.131430000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.891703</v>
       </c>
       <c r="BK22" s="1">
-        <v>1693.600000</v>
+        <v>1693.6</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1061.910000</v>
+        <v>-1061.9100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>39221.070991</v>
+        <v>39221.070991000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.894742</v>
+        <v>10.894742000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1987.010000</v>
+        <v>1987.01</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1838.050000</v>
+        <v>-1838.05</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>39231.771913</v>
+        <v>39231.771912999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.897714</v>
+        <v>10.897714000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2372.320000</v>
+        <v>2372.3200000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2737.760000</v>
+        <v>-2737.76</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>39243.037514</v>
+        <v>39243.037514000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.900844</v>
+        <v>10.900843999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2857.350000</v>
+        <v>2857.35</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3716.260000</v>
+        <v>-3716.26</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>39255.969705</v>
+        <v>39255.969705000003</v>
       </c>
       <c r="CD22" s="1">
         <v>10.904436</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.820000</v>
+        <v>4270.82</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6088.230000</v>
+        <v>-6088.23</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>39082.046048</v>
+        <v>39082.046047999997</v>
       </c>
       <c r="B23" s="1">
-        <v>10.856124</v>
+        <v>10.856123999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1253.500000</v>
+        <v>1253.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-282.185000</v>
+        <v>-282.185</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>39092.489347</v>
+        <v>39092.489347000002</v>
       </c>
       <c r="G23" s="1">
-        <v>10.859025</v>
+        <v>10.859025000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1274.850000</v>
+        <v>1274.8499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-245.939000</v>
+        <v>-245.93899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>39103.294197</v>
+        <v>39103.294197000003</v>
       </c>
       <c r="L23" s="1">
         <v>10.862026</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.790000</v>
+        <v>1307.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-194.053000</v>
+        <v>-194.053</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>39113.575734</v>
+        <v>39113.575733999998</v>
       </c>
       <c r="Q23" s="1">
         <v>10.864882</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.300000</v>
+        <v>1320.3</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.073000</v>
+        <v>-179.07300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>39124.092439</v>
@@ -5938,240 +6354,240 @@
         <v>10.867803</v>
       </c>
       <c r="W23" s="1">
-        <v>1334.680000</v>
+        <v>1334.68</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.570000</v>
+        <v>-168.57</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>39134.372530</v>
+        <v>39134.372530000001</v>
       </c>
       <c r="AA23" s="1">
         <v>10.870659</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.550000</v>
+        <v>1353.55</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.396000</v>
+        <v>-168.39599999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>39144.471036</v>
+        <v>39144.471036000003</v>
       </c>
       <c r="AF23" s="1">
         <v>10.873464</v>
       </c>
       <c r="AG23" s="1">
-        <v>1367.290000</v>
+        <v>1367.29</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.714000</v>
+        <v>-178.714</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>39154.733295</v>
+        <v>39154.733294999998</v>
       </c>
       <c r="AK23" s="1">
         <v>10.876315</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.710000</v>
+        <v>1388.71</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.068000</v>
+        <v>-209.06800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>39165.679510</v>
+        <v>39165.679510000002</v>
       </c>
       <c r="AP23" s="1">
         <v>10.879355</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.044000</v>
+        <v>-253.04400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>39176.871697</v>
+        <v>39176.871697000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.882464</v>
+        <v>10.882464000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.470000</v>
+        <v>1435.47</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.143000</v>
+        <v>-313.14299999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>39188.094179</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.885582</v>
+        <v>10.885581999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.395000</v>
+        <v>-365.39499999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>39199.090486</v>
+        <v>39199.090486000001</v>
       </c>
       <c r="BE23" s="1">
         <v>10.888636</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.790000</v>
+        <v>1539.79</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.500000</v>
+        <v>-614.5</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>39210.502935</v>
+        <v>39210.502934999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.891806</v>
+        <v>10.891806000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1693.540000</v>
+        <v>1693.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1061.900000</v>
+        <v>-1061.9000000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>39221.493287</v>
+        <v>39221.493286999998</v>
       </c>
       <c r="BO23" s="1">
         <v>10.894859</v>
       </c>
       <c r="BP23" s="1">
-        <v>1986.980000</v>
+        <v>1986.98</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1838.200000</v>
+        <v>-1838.2</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>39232.182603</v>
+        <v>39232.182603000001</v>
       </c>
       <c r="BT23" s="1">
         <v>10.897829</v>
       </c>
       <c r="BU23" s="1">
-        <v>2372.000000</v>
+        <v>2372</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2737.120000</v>
+        <v>-2737.12</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>39243.457625</v>
+        <v>39243.457625000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.900960</v>
+        <v>10.90096</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2856.800000</v>
+        <v>2856.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3715.950000</v>
+        <v>-3715.95</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>39256.489512</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.904580</v>
+        <v>10.904579999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4283.750000</v>
+        <v>4283.75</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6094.310000</v>
+        <v>-6094.31</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>39082.692334</v>
+        <v>39082.692333999999</v>
       </c>
       <c r="B24" s="1">
         <v>10.856303</v>
       </c>
       <c r="C24" s="1">
-        <v>1253.580000</v>
+        <v>1253.58</v>
       </c>
       <c r="D24" s="1">
-        <v>-282.528000</v>
+        <v>-282.52800000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>39093.149035</v>
+        <v>39093.149035000002</v>
       </c>
       <c r="G24" s="1">
-        <v>10.859208</v>
+        <v>10.859208000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1274.540000</v>
+        <v>1274.54</v>
       </c>
       <c r="I24" s="1">
-        <v>-245.800000</v>
+        <v>-245.8</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>39103.686995</v>
+        <v>39103.686994999996</v>
       </c>
       <c r="L24" s="1">
         <v>10.862135</v>
       </c>
       <c r="M24" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-193.741000</v>
+        <v>-193.74100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>39113.940789</v>
@@ -6180,28 +6596,28 @@
         <v>10.864984</v>
       </c>
       <c r="R24" s="1">
-        <v>1320.340000</v>
+        <v>1320.34</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.182000</v>
+        <v>-179.18199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>39124.437127</v>
+        <v>39124.437126999997</v>
       </c>
       <c r="V24" s="1">
         <v>10.867899</v>
       </c>
       <c r="W24" s="1">
-        <v>1334.570000</v>
+        <v>1334.57</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.582000</v>
+        <v>-168.58199999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>39134.708777</v>
@@ -6210,43 +6626,43 @@
         <v>10.870752</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.470000</v>
+        <v>1353.47</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.527000</v>
+        <v>-168.52699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>39144.819262</v>
+        <v>39144.819261999997</v>
       </c>
       <c r="AF24" s="1">
         <v>10.873561</v>
       </c>
       <c r="AG24" s="1">
-        <v>1367.300000</v>
+        <v>1367.3</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.724000</v>
+        <v>-178.72399999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>39155.149406</v>
+        <v>39155.149405999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.876430</v>
+        <v>10.876429999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.720000</v>
+        <v>1388.72</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.048000</v>
+        <v>-209.048</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>39166.099123</v>
@@ -6255,118 +6671,118 @@
         <v>10.879472</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.730000</v>
+        <v>1410.73</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.055000</v>
+        <v>-253.05500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>39177.177766</v>
+        <v>39177.177766000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.882549</v>
+        <v>10.882548999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1435.480000</v>
+        <v>1435.48</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.098000</v>
+        <v>-313.09800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>39188.451300</v>
+        <v>39188.451300000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.885681</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.790000</v>
+        <v>1454.79</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.343000</v>
+        <v>-365.34300000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>39199.454052</v>
+        <v>39199.454052000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>10.888737</v>
+        <v>10.888737000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.494000</v>
+        <v>-614.49400000000003</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>39210.880919</v>
+        <v>39210.880919000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.891911</v>
       </c>
       <c r="BK24" s="1">
-        <v>1693.520000</v>
+        <v>1693.52</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.810000</v>
+        <v>-1061.81</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>39221.888143</v>
+        <v>39221.888142999996</v>
       </c>
       <c r="BO24" s="1">
         <v>10.894969</v>
       </c>
       <c r="BP24" s="1">
-        <v>1987.030000</v>
+        <v>1987.03</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1838.150000</v>
+        <v>-1838.15</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>39232.613621</v>
+        <v>39232.613620999997</v>
       </c>
       <c r="BT24" s="1">
         <v>10.897948</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.410000</v>
+        <v>2371.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2736.720000</v>
+        <v>-2736.72</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>39243.883689</v>
+        <v>39243.883689000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.901079</v>
+        <v>10.901078999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2856.740000</v>
+        <v>2856.74</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3715.760000</v>
+        <v>-3715.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>39257.005847</v>
@@ -6375,75 +6791,75 @@
         <v>10.904724</v>
       </c>
       <c r="CE24" s="1">
-        <v>4287.820000</v>
+        <v>4287.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6081.020000</v>
+        <v>-6081.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>39083.069295</v>
+        <v>39083.069295000001</v>
       </c>
       <c r="B25" s="1">
         <v>10.856408</v>
       </c>
       <c r="C25" s="1">
-        <v>1253.450000</v>
+        <v>1253.45</v>
       </c>
       <c r="D25" s="1">
-        <v>-282.274000</v>
+        <v>-282.274</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>39093.522480</v>
+        <v>39093.52248</v>
       </c>
       <c r="G25" s="1">
-        <v>10.859312</v>
+        <v>10.859311999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1275.020000</v>
+        <v>1275.02</v>
       </c>
       <c r="I25" s="1">
-        <v>-245.841000</v>
+        <v>-245.84100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>39104.032210</v>
+        <v>39104.032209999998</v>
       </c>
       <c r="L25" s="1">
         <v>10.862231</v>
       </c>
       <c r="M25" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-193.935000</v>
+        <v>-193.935</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>39114.287028</v>
+        <v>39114.287027999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.865080</v>
+        <v>10.865080000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1320.270000</v>
+        <v>1320.27</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.231000</v>
+        <v>-179.23099999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>39124.786839</v>
@@ -6452,148 +6868,148 @@
         <v>10.867996</v>
       </c>
       <c r="W25" s="1">
-        <v>1334.600000</v>
+        <v>1334.6</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.537000</v>
+        <v>-168.53700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>39135.131866</v>
+        <v>39135.131866000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.870870</v>
+        <v>10.87087</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.430000</v>
+        <v>1353.43</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.378000</v>
+        <v>-168.37799999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>39145.240828</v>
+        <v>39145.240828000002</v>
       </c>
       <c r="AF25" s="1">
         <v>10.873678</v>
       </c>
       <c r="AG25" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.832000</v>
+        <v>-178.83199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>39155.445518</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.876513</v>
+        <v>10.876512999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.670000</v>
+        <v>1388.67</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.060000</v>
+        <v>-209.06</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>39166.402143</v>
+        <v>39166.402142999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.879556</v>
+        <v>10.879555999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.740000</v>
+        <v>1410.74</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.034000</v>
+        <v>-253.03399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>39177.544273</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.882651</v>
+        <v>10.882650999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.460000</v>
+        <v>1435.46</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.115000</v>
+        <v>-313.11500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>39188.810898</v>
+        <v>39188.810898000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.885781</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.850000</v>
+        <v>1454.85</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.320000</v>
+        <v>-365.32</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>39199.813157</v>
+        <v>39199.813156999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>10.888837</v>
+        <v>10.888837000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.810000</v>
+        <v>1539.81</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.524000</v>
+        <v>-614.524</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>39211.630340</v>
+        <v>39211.630340000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.892120</v>
+        <v>10.89212</v>
       </c>
       <c r="BK25" s="1">
-        <v>1693.540000</v>
+        <v>1693.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1061.840000</v>
+        <v>-1061.8399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>39222.308252</v>
+        <v>39222.308252000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.895086</v>
+        <v>10.895085999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1838.040000</v>
+        <v>-1838.04</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>39233.039159</v>
@@ -6602,46 +7018,46 @@
         <v>10.898066</v>
       </c>
       <c r="BU25" s="1">
-        <v>2371.010000</v>
+        <v>2371.0100000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2736.040000</v>
+        <v>-2736.04</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>39244.331577</v>
+        <v>39244.331576999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.901203</v>
+        <v>10.901203000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2856.260000</v>
+        <v>2856.26</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3716.650000</v>
+        <v>-3716.65</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>39257.524168</v>
+        <v>39257.524168000004</v>
       </c>
       <c r="CD25" s="1">
         <v>10.904868</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.140000</v>
+        <v>4273.1400000000003</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6077.420000</v>
+        <v>-6077.42</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>39083.412525</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>10.856503</v>
       </c>
       <c r="C26" s="1">
-        <v>1253.720000</v>
+        <v>1253.72</v>
       </c>
       <c r="D26" s="1">
-        <v>-282.308000</v>
+        <v>-282.30799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>39093.868223</v>
+        <v>39093.868222999998</v>
       </c>
       <c r="G26" s="1">
         <v>10.859408</v>
       </c>
       <c r="H26" s="1">
-        <v>1274.200000</v>
+        <v>1274.2</v>
       </c>
       <c r="I26" s="1">
-        <v>-246.576000</v>
+        <v>-246.57599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>39104.376929</v>
+        <v>39104.376928999998</v>
       </c>
       <c r="L26" s="1">
-        <v>10.862327</v>
+        <v>10.862327000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.800000</v>
+        <v>1307.8</v>
       </c>
       <c r="N26" s="1">
-        <v>-193.935000</v>
+        <v>-193.935</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>39114.637669</v>
+        <v>39114.637669000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.865177</v>
+        <v>10.865176999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1320.230000</v>
+        <v>1320.23</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.220000</v>
+        <v>-179.22</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>39125.198982</v>
+        <v>39125.198982000002</v>
       </c>
       <c r="V26" s="1">
-        <v>10.868111</v>
+        <v>10.868111000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1334.570000</v>
+        <v>1334.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.660000</v>
+        <v>-168.66</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>39135.413629</v>
+        <v>39135.413629000002</v>
       </c>
       <c r="AA26" s="1">
         <v>10.870948</v>
       </c>
       <c r="AB26" s="1">
-        <v>1353.430000</v>
+        <v>1353.43</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.423000</v>
+        <v>-168.423</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>39145.523078</v>
+        <v>39145.523077999998</v>
       </c>
       <c r="AF26" s="1">
         <v>10.873756</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.300000</v>
+        <v>1367.3</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.752000</v>
+        <v>-178.75200000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>39155.797183</v>
+        <v>39155.797183000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.876610</v>
+        <v>10.876609999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.750000</v>
+        <v>1388.75</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.030000</v>
+        <v>-209.03</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>39166.758975</v>
+        <v>39166.758974999997</v>
       </c>
       <c r="AP26" s="1">
         <v>10.879655</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.690000</v>
+        <v>1410.69</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.023000</v>
+        <v>-253.023</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>39177.909824</v>
+        <v>39177.909824000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.882753</v>
+        <v>10.882752999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1435.470000</v>
+        <v>1435.47</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.115000</v>
+        <v>-313.11500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>39189.527617</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.885980</v>
+        <v>10.88598</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.780000</v>
+        <v>1454.78</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.373000</v>
+        <v>-365.37299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>39200.534866</v>
+        <v>39200.534866000002</v>
       </c>
       <c r="BE26" s="1">
         <v>10.889037</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.780000</v>
+        <v>1539.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.452000</v>
+        <v>-614.452</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>39212.005812</v>
+        <v>39212.005812000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.892224</v>
+        <v>10.892224000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1693.520000</v>
+        <v>1693.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1061.840000</v>
+        <v>-1061.8399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>39222.737524</v>
+        <v>39222.737523999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.895205</v>
+        <v>10.895205000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1987.100000</v>
+        <v>1987.1</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1837.980000</v>
+        <v>-1837.98</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>39233.454807</v>
+        <v>39233.454807000002</v>
       </c>
       <c r="BT26" s="1">
         <v>10.898182</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.830000</v>
+        <v>2370.83</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2735.020000</v>
+        <v>-2735.02</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>39245.066183</v>
+        <v>39245.066183000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>10.901407</v>
+        <v>10.901407000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2856.930000</v>
+        <v>2856.93</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3716.920000</v>
+        <v>-3716.92</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>39258.208646</v>
+        <v>39258.208645999999</v>
       </c>
       <c r="CD26" s="1">
         <v>10.905058</v>
       </c>
       <c r="CE26" s="1">
-        <v>4269.620000</v>
+        <v>4269.62</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6094.110000</v>
+        <v>-6094.11</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>